--- a/src/test/resources/testdata/pageobjects/ExcelTest.xlsx
+++ b/src/test/resources/testdata/pageobjects/ExcelTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\excel-version-control\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F507FBF-81E1-4433-A20C-6495075CEEA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB41E06-BEEC-4FFF-9169-EE3B8B37CD96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>home_1</t>
+    <t>home</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
